--- a/会计/Departmental Accounts/2015 Q4.xlsx
+++ b/会计/Departmental Accounts/2015 Q4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Departmental Accounts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD922E-7207-CE43-BA00-E6E322889D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA586651-3EB6-6748-A3B0-403AF5A3F339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1930299A-E5CB-C049-975B-E8ECB52E93FE}"/>
   </bookViews>
@@ -569,10 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8894D48B-57C6-F946-8845-A0E52862DEF9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2374,7 +2377,9 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="D17" formulaRange="1"/>
   </ignoredErrors>
